--- a/INCENTIVE RATE.xlsx
+++ b/INCENTIVE RATE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7815"/>
+    <workbookView windowWidth="22188" windowHeight="10271"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="59">
   <si>
     <t>Type</t>
   </si>
@@ -134,6 +134,63 @@
   </si>
   <si>
     <t>KANGKONG (KG) 1 X 1KG</t>
+  </si>
+  <si>
+    <t>ORGANIC SAWI JEPUN ( PER KG )</t>
+  </si>
+  <si>
+    <t>ORGANIC NAI BAI ( PER KG )</t>
+  </si>
+  <si>
+    <t>ORGANIC GREEN TAT SOI 1X1KG</t>
+  </si>
+  <si>
+    <t>ORGANIC PURPLE TAT SOI 1X1KG</t>
+  </si>
+  <si>
+    <t>ORGANIC KOMATSUNA 1X1KG</t>
+  </si>
+  <si>
+    <t>ORGANIC SAWI KERINTING ( PER KG )</t>
+  </si>
+  <si>
+    <t>BAYAM MERAH (KG) 1 X 1KG</t>
+  </si>
+  <si>
+    <t>ORGANIC BAYAM MERAH 1X300G</t>
+  </si>
+  <si>
+    <t>ORGANIC KOREAN LETTUCE ( PER KG )</t>
+  </si>
+  <si>
+    <t>ORGANIC KANGKONG 1X1KG</t>
+  </si>
+  <si>
+    <t>ORGANIC CHOY SUM ( PER KG )</t>
+  </si>
+  <si>
+    <t>ORGANIC SAWI PUTIH KOPEK ( PER KG )</t>
+  </si>
+  <si>
+    <t>ORGANIC HK SAWI ( PER KG )</t>
+  </si>
+  <si>
+    <t>ORGANIC BENDI ( PER KG )</t>
+  </si>
+  <si>
+    <t>ORGANIC LONG BEAN ( PER KG )</t>
+  </si>
+  <si>
+    <t>HK KAILAN (KG) 1 X 1KG</t>
+  </si>
+  <si>
+    <t>HK KAILAN 1x1KG</t>
+  </si>
+  <si>
+    <t>ORGANIC MINICOS ( PER KG )</t>
+  </si>
+  <si>
+    <t>DAUN KARI (KP) (KG) 1X1KG</t>
   </si>
 </sst>
 </file>
@@ -141,10 +198,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;RM&quot;* #,##0.00_-;\-&quot;RM&quot;* #,##0.00_-;_-&quot;RM&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;RM&quot;* #,##0_-;\-&quot;RM&quot;* #,##0_-;_-&quot;RM&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;RM&quot;* #,##0.00_-;\-&quot;RM&quot;* #,##0.00_-;_-&quot;RM&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;RM&quot;* #,##0_-;\-&quot;RM&quot;* #,##0_-;_-&quot;RM&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -161,10 +218,34 @@
       <charset val="0"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -176,10 +257,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -191,6 +281,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -200,31 +313,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,7 +328,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,54 +355,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -314,175 +371,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -523,11 +580,65 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,32 +658,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -587,186 +677,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -781,7 +838,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -798,52 +855,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1114,15 +1171,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:B64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="42.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="42.712962962963" customWidth="1"/>
     <col min="2" max="2" width="41" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1374,7 +1431,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" ht="15" spans="1:2">
       <c r="A32" s="6" t="s">
         <v>32</v>
       </c>
@@ -1382,7 +1439,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" ht="15" spans="1:2">
       <c r="A33" s="6" t="s">
         <v>33</v>
       </c>
@@ -1390,7 +1447,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" ht="15" spans="1:2">
       <c r="A34" s="7" t="s">
         <v>34</v>
       </c>
@@ -1398,7 +1455,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" ht="15" spans="1:2">
       <c r="A35" s="7" t="s">
         <v>35</v>
       </c>
@@ -1406,7 +1463,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" ht="15" spans="1:2">
       <c r="A36" s="7" t="s">
         <v>36</v>
       </c>
@@ -1414,7 +1471,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" ht="15" spans="1:2">
       <c r="A37" s="7" t="s">
         <v>37</v>
       </c>
@@ -1422,7 +1479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" ht="15" spans="1:2">
       <c r="A38" s="7" t="s">
         <v>38</v>
       </c>
@@ -1430,12 +1487,212 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" ht="15" spans="1:2">
       <c r="A39" s="7" t="s">
         <v>39</v>
       </c>
       <c r="B39" s="4">
         <v>0.2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>20</v>
+      </c>
+      <c r="B49">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>22</v>
+      </c>
+      <c r="B55">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>53</v>
+      </c>
+      <c r="B57">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>54</v>
+      </c>
+      <c r="B58">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>28</v>
+      </c>
+      <c r="B59">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>55</v>
+      </c>
+      <c r="B60">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>56</v>
+      </c>
+      <c r="B61">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>57</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B63">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>31</v>
+      </c>
+      <c r="B64">
+        <v>0.15</v>
       </c>
     </row>
   </sheetData>
